--- a/Fig-5-Supp-Table-2-data.xlsx
+++ b/Fig-5-Supp-Table-2-data.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CMC/research/chelsea_crooks/projects/zikv_dak_macaques/writing/african-lineage-zikv-in-pregnant-macaques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0EADF4-54AA-6649-B0D0-9CC2378A9930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567815B5-C551-DA46-835F-226F3A2F9FC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30820" yWindow="-760" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fig 5 ZIKV-PR(044) MFI raw data" sheetId="1" r:id="rId1"/>
-    <sheet name="Fig 5 ZIKV-PR MFI figure data " sheetId="3" r:id="rId2"/>
-    <sheet name="Fig5 ZIKV-DAK(030) MFI raw data" sheetId="5" r:id="rId3"/>
-    <sheet name="Fig 5 ZIKV-DAK MFI figure data" sheetId="6" r:id="rId4"/>
-    <sheet name="Supp Table 2 ZIKV-PR(044) raw" sheetId="4" r:id="rId5"/>
-    <sheet name="Supp Table 2 ZIKV-DAK(030) raw" sheetId="7" r:id="rId6"/>
+    <sheet name="Fig 5A ZIKV-PR(044) raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig 5A ZIKV-PR MFI figure data " sheetId="3" r:id="rId2"/>
+    <sheet name="Fig 5A ZIKV-DAK(030) raw data" sheetId="5" r:id="rId3"/>
+    <sheet name="Fig 5A ZIKV-DAK MFI figure data" sheetId="6" r:id="rId4"/>
+    <sheet name="Fig 5C ZIKV IgM ELISA " sheetId="8" r:id="rId5"/>
+    <sheet name="Supp Table 2 ZIKV-PR(044) raw" sheetId="4" r:id="rId6"/>
+    <sheet name="Supp Table 2 ZIKV-DAK(030) raw" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fig 5 ZIKV-PR(044) MFI raw data'!$A$1:$K$217</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fig5 ZIKV-DAK(030) MFI raw data'!$A$1:$K$349</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Supp Table 2 ZIKV-DAK(030) raw'!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Supp Table 2 ZIKV-PR(044) raw'!$A$1:$K$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Fig 5A ZIKV-DAK(030) raw data'!$A$1:$K$349</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fig 5A ZIKV-PR(044) raw data'!$A$1:$K$217</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Supp Table 2 ZIKV-DAK(030) raw'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Supp Table 2 ZIKV-PR(044) raw'!$A$1:$K$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5124" uniqueCount="276">
   <si>
     <t>Participant ID</t>
   </si>
@@ -838,6 +839,39 @@
   <si>
     <t>044-504</t>
   </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Collection Time</t>
+  </si>
+  <si>
+    <t>Replicate 1 Extinction Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replicate 2 Extinction Value </t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Day of Delivery</t>
+  </si>
+  <si>
+    <t>4 dpi</t>
+  </si>
+  <si>
+    <t>14 dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assay Postive </t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Assay Negative Control</t>
+  </si>
 </sst>
 </file>
 
@@ -848,7 +882,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -922,6 +956,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1173,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1387,6 +1428,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1703,7 +1745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
@@ -22517,6 +22559,166 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1D8A3C-E696-1742-AD74-94720C70ECAF}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="85">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E2" s="85">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="85">
+        <v>0.27</v>
+      </c>
+      <c r="D3" s="85">
+        <v>0.27</v>
+      </c>
+      <c r="E3" s="85">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="85">
+        <v>0.27</v>
+      </c>
+      <c r="D4" s="85">
+        <v>0.24</v>
+      </c>
+      <c r="E4" s="85">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="85">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D5" s="85">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="85">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="85">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E6" s="85">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="85">
+        <v>10.46</v>
+      </c>
+      <c r="D7" s="85">
+        <v>8.99</v>
+      </c>
+      <c r="E7" s="85">
+        <v>9.7249999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="85">
+        <v>3.46</v>
+      </c>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="85">
+        <v>0.46</v>
+      </c>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E08401D-B34F-344B-8E9B-C84D0855618F}">
   <dimension ref="A1:L22"/>
   <sheetViews>
@@ -23274,7 +23476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE54343-A133-7147-8D6E-3B0DB3819F8A}">
   <dimension ref="A1:L253"/>
   <sheetViews>
